--- a/biology/Microbiologie/Hoplitophryidae/Hoplitophryidae.xlsx
+++ b/biology/Microbiologie/Hoplitophryidae/Hoplitophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hoplitophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Astomatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Hoplitophrya, dérivé du grec ὅπλον / óplon, « arme, armé », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié armé », en référence à la structure de ce cilié qui comporte un « ectoplasme épaissi… reposant sur un cytosquelette »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Hoplitophrya, dérivé du grec ὅπλον / óplon, « arme, armé », et de οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié », littéralement « cilié armé », en référence à la structure de ce cilié qui comporte un « ectoplasme épaissi… reposant sur un cytosquelette ».
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hoplitophryidae ont une taille petite à moyenne. Leur forme est allongée, cylindrique, effilée vers l'arrière. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), modérée à légère. Leur ectoplasme est épaissi à l'extrémité apicale, reposant sur un cytosquelette fibreux associé à une structure d'attache en forme de « V », qui peut être réduite ou absente. Leur division se fait de façon anisotomique, souvent avec caténulation (c'est-à-dire en formant de petites chaînes). Leur macronoyau est allongé, en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont généralement disposées sur une seule rangée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hoplitophryidae ont une taille petite à moyenne. Leur forme est allongée, cylindrique, effilée vers l'arrière. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c'est-à-dire uniforme), modérée à légère. Leur ectoplasme est épaissi à l'extrémité apicale, reposant sur un cytosquelette fibreux associé à une structure d'attache en forme de « V », qui peut être réduite ou absente. Leur division se fait de façon anisotomique, souvent avec caténulation (c'est-à-dire en formant de petites chaînes). Leur macronoyau est allongé, en forme de ruban. Un micronoyau est présent. Leurs vacuoles contractiles sont généralement disposées sur une seule rangée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Hoplitophryidae vivent dans des habitats d'eau douce et terrestres, dans le tube digestif de vers annélides oligochètes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Hoplitophryidae vivent dans des habitats d'eau douce et terrestres, dans le tube digestif de vers annélides oligochètes.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 août 2023)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 août 2023) :
 Buetschliellopsis Puytorac, 1954
 Delphyella de Puytorac, 1969
 Desmophrya Raabe, 1933
@@ -618,7 +638,7 @@
 Mimophrya de Puytorac, 1969
 Paracoelophrya de Puytorac, 1969
 Radiophryoides Lom, 1956
-Selon Lynn (2010)[1] et The Taxonomicon  (29 août 2023)[3]:
+Selon Lynn (2010) et The Taxonomicon  (29 août 2023):
 Akidodes Lom in Aescht, 2001
 Anglasia Delphy, 1936
 Buetschliellopsis de Puytorac, 1954
@@ -660,9 +680,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Hoplitophryidae est attribuée en 1930 au protozoologiste soviétique Evgeniy Mineevich Cheissin (d) (1907-1968)[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Hoplitophryidae est attribuée en 1930 au protozoologiste soviétique Evgeniy Mineevich Cheissin (d) (1907-1968).
 </t>
         </is>
       </c>
